--- a/metadata/ReactorA_Sample_Extraction_Status_Sheet-final.xlsx
+++ b/metadata/ReactorA_Sample_Extraction_Status_Sheet-final.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcdaniel/Desktop/McMahon-Lab/EBPR-Projects/Reactors/ABC_Reactors/Abigail_EBPR_SBR/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcdaniel/Desktop/McMahon-Lab/EBPR-Projects/Abigail_EBPR_SBR/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21BBCE2E-A8A4-0E49-8B00-2C2FC960F420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADE5C62-460E-F543-9CBA-4477D00A6523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="1020" windowWidth="27240" windowHeight="15500" xr2:uid="{F68963A4-85AE-4844-8062-B007DB0889D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateCount="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="110">
   <si>
     <t>Replicates</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Operation_Day</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>A-2021-03-15</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>OOR - too low (good)</t>
+  </si>
+  <si>
+    <t>Sample_date</t>
   </si>
 </sst>
 </file>
@@ -727,72 +727,73 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="C2" sqref="C2:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -802,38 +803,44 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>44230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1">
         <v>44285</v>
       </c>
-      <c r="H2" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1">
+        <v>44296</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.94</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2.46</v>
       </c>
-      <c r="M2" t="s">
-        <v>73</v>
+      <c r="N2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -843,38 +850,44 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>44232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
         <v>44285</v>
       </c>
-      <c r="H3" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
+      <c r="I3" s="1">
+        <v>44296</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3">
         <v>1.92</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2.61</v>
       </c>
-      <c r="M3" t="s">
-        <v>74</v>
+      <c r="N3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -884,38 +897,44 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>44235</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1">
         <v>44285</v>
       </c>
-      <c r="H4" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I4" t="s">
-        <v>53</v>
+      <c r="I4" s="1">
+        <v>44296</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4">
         <v>1.9</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2.56</v>
       </c>
-      <c r="M4" t="s">
-        <v>75</v>
+      <c r="N4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -925,38 +944,44 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="1">
+        <v>44237</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1">
         <v>44285</v>
       </c>
-      <c r="H5" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
+      <c r="I5" s="1">
+        <v>44296</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5">
         <v>1.94</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2.62</v>
       </c>
-      <c r="M5" t="s">
-        <v>76</v>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -966,38 +991,44 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="1">
+        <v>44239</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
         <v>44285</v>
       </c>
-      <c r="H6" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
+      <c r="I6" s="1">
+        <v>44296</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6">
         <v>1.94</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.62</v>
       </c>
-      <c r="M6" t="s">
-        <v>89</v>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1007,38 +1038,44 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1">
+        <v>44242</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
         <v>44285</v>
       </c>
-      <c r="H7" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
+      <c r="I7" s="1">
+        <v>44296</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7">
         <v>1.98</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2.4700000000000002</v>
       </c>
-      <c r="M7" t="s">
-        <v>77</v>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1048,38 +1085,44 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1">
+        <v>44244</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
         <v>44285</v>
       </c>
-      <c r="H8" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
+      <c r="I8" s="1">
+        <v>44296</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8">
         <v>2.0699999999999998</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3.2</v>
       </c>
-      <c r="M8" t="s">
-        <v>78</v>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1089,38 +1132,44 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="1">
+        <v>44246</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
         <v>17</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
         <v>44285</v>
       </c>
-      <c r="H9" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
+      <c r="I9" s="1">
+        <v>44296</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9">
         <v>1.91</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2.93</v>
       </c>
-      <c r="M9" t="s">
-        <v>79</v>
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1130,38 +1179,44 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="1">
+        <v>44249</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
         <v>20</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1">
         <v>44285</v>
       </c>
-      <c r="H10" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
+      <c r="I10" s="1">
+        <v>44296</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10">
         <v>1.96</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2.98</v>
       </c>
-      <c r="M10" t="s">
-        <v>62</v>
+      <c r="N10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1171,38 +1226,44 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="1">
+        <v>44251</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="1">
         <v>44285</v>
       </c>
-      <c r="H11" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I11" t="s">
-        <v>53</v>
+      <c r="I11" s="1">
+        <v>44296</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11">
         <v>1.79</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2.65</v>
       </c>
-      <c r="M11" t="s">
-        <v>80</v>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1212,38 +1273,44 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="1">
+        <v>44253</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
         <v>24</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="1">
         <v>44285</v>
       </c>
-      <c r="H12" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I12" t="s">
-        <v>53</v>
+      <c r="I12" s="1">
+        <v>44296</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12">
+        <v>52</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12">
         <v>1.96</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2.99</v>
       </c>
-      <c r="M12" t="s">
-        <v>81</v>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1253,38 +1320,44 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="1">
+        <v>44256</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="1">
         <v>44285</v>
       </c>
-      <c r="H13" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I13" t="s">
-        <v>53</v>
+      <c r="I13" s="1">
+        <v>44296</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13">
         <v>2.09</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3.25</v>
       </c>
-      <c r="M13" t="s">
-        <v>82</v>
+      <c r="N13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1294,38 +1367,44 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="1">
+        <v>44258</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
         <v>29</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="1">
         <v>44285</v>
       </c>
-      <c r="H14" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I14" t="s">
-        <v>53</v>
+      <c r="I14" s="1">
+        <v>44296</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14">
+        <v>52</v>
+      </c>
+      <c r="K14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14">
         <v>1.97</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3.1</v>
       </c>
-      <c r="M14" t="s">
-        <v>83</v>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1335,38 +1414,44 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="1">
+        <v>44260</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
         <v>31</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="1">
         <v>44285</v>
       </c>
-      <c r="H15" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I15" t="s">
-        <v>53</v>
+      <c r="I15" s="1">
+        <v>44296</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15">
+        <v>52</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15">
         <v>1.97</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3.2</v>
       </c>
-      <c r="M15" t="s">
-        <v>84</v>
+      <c r="N15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1376,659 +1461,755 @@
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="1">
+        <v>44263</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
         <v>34</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="1">
         <v>44285</v>
       </c>
-      <c r="H16" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I16" t="s">
-        <v>53</v>
+      <c r="I16" s="1">
+        <v>44296</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16">
+        <v>52</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16">
         <v>1.93</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2.8</v>
       </c>
-      <c r="M16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="1">
+        <v>44265</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
         <v>36</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="1">
         <v>44285</v>
       </c>
-      <c r="H17" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I17" t="s">
-        <v>53</v>
+      <c r="I17" s="1">
+        <v>44296</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17">
         <v>1.87</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2.91</v>
       </c>
-      <c r="M17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="1">
+        <v>44267</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
         <v>38</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1">
         <v>44289</v>
       </c>
-      <c r="H18" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I18" t="s">
-        <v>53</v>
+      <c r="I18" s="1">
+        <v>44296</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18">
+        <v>52</v>
+      </c>
+      <c r="K18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18">
         <v>1.85</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2.58</v>
       </c>
-      <c r="M18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44270</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
         <v>41</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="1">
         <v>44289</v>
       </c>
-      <c r="H19" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I19" t="s">
-        <v>53</v>
+      <c r="I19" s="1">
+        <v>44296</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19">
         <v>1.74</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1.91</v>
       </c>
-      <c r="M19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44272</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
         <v>43</v>
       </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="1">
         <v>44289</v>
       </c>
-      <c r="H20" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I20" t="s">
-        <v>53</v>
+      <c r="I20" s="1">
+        <v>44296</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20">
         <v>1.72</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1.92</v>
       </c>
-      <c r="M20" t="s">
-        <v>87</v>
+      <c r="N20" t="s">
+        <v>86</v>
       </c>
       <c r="O20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="P20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44273</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
         <v>44</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="1">
         <v>44289</v>
       </c>
-      <c r="H21" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I21" t="s">
-        <v>53</v>
+      <c r="I21" s="1">
+        <v>44296</v>
       </c>
       <c r="J21" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21">
+        <v>52</v>
+      </c>
+      <c r="K21" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21">
         <v>1.72</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1.81</v>
       </c>
-      <c r="M21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44274</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
         <v>45</v>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1">
         <v>44289</v>
       </c>
-      <c r="H22" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I22" t="s">
-        <v>53</v>
+      <c r="I22" s="1">
+        <v>44296</v>
       </c>
       <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22">
+        <v>1.67</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
         <v>100</v>
       </c>
-      <c r="K22">
-        <v>1.67</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="M22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44277</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
         <v>48</v>
       </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="1">
         <v>44289</v>
       </c>
-      <c r="H23" s="1">
-        <v>44296</v>
-      </c>
-      <c r="I23" t="s">
-        <v>53</v>
+      <c r="I23" s="1">
+        <v>44296</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="K23" t="s">
+        <v>101</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
-      <c r="M23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>102</v>
+      </c>
+      <c r="O23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44279</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
         <v>50</v>
       </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="1">
         <v>44289</v>
       </c>
-      <c r="H24" s="2">
-        <v>44296</v>
-      </c>
-      <c r="I24" t="s">
-        <v>53</v>
+      <c r="I24" s="2">
+        <v>44296</v>
       </c>
       <c r="J24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24">
+        <v>1.78</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
         <v>104</v>
       </c>
-      <c r="K24">
-        <v>1.78</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44281</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="1">
+        <v>52</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="1">
         <v>44289</v>
       </c>
-      <c r="H25" s="2">
-        <v>44296</v>
-      </c>
-      <c r="I25" t="s">
-        <v>53</v>
+      <c r="I25" s="2">
+        <v>44296</v>
       </c>
       <c r="J25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25">
+        <v>1.89</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
         <v>106</v>
       </c>
-      <c r="K25">
-        <v>1.89</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44284</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
         <v>55</v>
       </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="1">
-        <v>44296</v>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
       </c>
       <c r="H26" s="1">
+        <v>44296</v>
+      </c>
+      <c r="I26" s="1">
         <v>44297</v>
       </c>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
       <c r="J26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26">
+        <v>1.68</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
         <v>90</v>
       </c>
-      <c r="K26">
-        <v>1.68</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44286</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
         <v>57</v>
       </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="1">
-        <v>44296</v>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
       </c>
       <c r="H27" s="1">
+        <v>44296</v>
+      </c>
+      <c r="I27" s="1">
         <v>44297</v>
       </c>
-      <c r="I27" t="s">
-        <v>53</v>
-      </c>
       <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27">
+        <v>1.37</v>
+      </c>
+      <c r="M27">
+        <v>1.29</v>
+      </c>
+      <c r="N27" t="s">
         <v>92</v>
       </c>
-      <c r="K27">
-        <v>1.37</v>
-      </c>
-      <c r="L27">
-        <v>1.29</v>
-      </c>
-      <c r="M27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>51</v>
       </c>
       <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="1">
+        <v>44296</v>
+      </c>
+      <c r="I28" s="1">
+        <v>44297</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28">
+        <v>1.45</v>
+      </c>
+      <c r="M28">
+        <v>1.37</v>
+      </c>
+      <c r="N28" t="s">
+        <v>94</v>
+      </c>
+      <c r="O28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28">
-        <v>59</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="1">
-        <v>44296</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="C29" s="1">
+        <v>44289</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="1">
+        <v>44296</v>
+      </c>
+      <c r="I29" s="1">
         <v>44297</v>
       </c>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" t="s">
-        <v>94</v>
-      </c>
-      <c r="K28">
-        <v>1.45</v>
-      </c>
-      <c r="L28">
-        <v>1.37</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29">
-        <v>60</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="1">
-        <v>44296</v>
-      </c>
-      <c r="H29" s="1">
-        <v>44297</v>
-      </c>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="L29">
+        <v>1.49</v>
+      </c>
+      <c r="M29">
+        <v>1.59</v>
+      </c>
+      <c r="N29" t="s">
         <v>96</v>
       </c>
-      <c r="K29">
-        <v>1.49</v>
-      </c>
-      <c r="L29">
-        <v>1.59</v>
-      </c>
-      <c r="M29" t="s">
-        <v>97</v>
-      </c>
       <c r="O29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="P29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44290</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
         <v>61</v>
       </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="1">
-        <v>44296</v>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
       </c>
       <c r="H30" s="1">
+        <v>44296</v>
+      </c>
+      <c r="I30" s="1">
         <v>44297</v>
       </c>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
       <c r="J30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30">
+        <v>1.45</v>
+      </c>
+      <c r="M30">
+        <v>1.4</v>
+      </c>
+      <c r="N30" t="s">
         <v>98</v>
       </c>
-      <c r="K30">
-        <v>1.45</v>
-      </c>
-      <c r="L30">
-        <v>1.4</v>
-      </c>
-      <c r="M30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
         <v>48</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="1">
-        <v>44296</v>
+      <c r="G31" t="s">
+        <v>46</v>
       </c>
       <c r="H31" s="1">
+        <v>44296</v>
+      </c>
+      <c r="I31" s="1">
         <v>44297</v>
       </c>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
       <c r="J31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" t="s">
+        <v>107</v>
+      </c>
+      <c r="L31">
+        <v>1.34</v>
+      </c>
+      <c r="M31">
+        <v>1.36</v>
+      </c>
+      <c r="N31" t="s">
         <v>108</v>
       </c>
-      <c r="K31">
-        <v>1.34</v>
-      </c>
-      <c r="L31">
-        <v>1.36</v>
-      </c>
-      <c r="M31" t="s">
-        <v>109</v>
+      <c r="O31" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
